--- a/Sample/Sample/Uploads/Ajjuexcel1.xlsx
+++ b/Sample/Sample/Uploads/Ajjuexcel1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\HWQATool\Code\HWQATool\HWQATool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chandana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,15 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve"> Client</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -39,15 +36,6 @@
     <t>ServiceRequestNo</t>
   </si>
   <si>
-    <t xml:space="preserve"> AuditNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BatchNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FileNo</t>
-  </si>
-  <si>
     <t>NoOfRecords</t>
   </si>
   <si>
@@ -63,7 +51,19 @@
     <t>x</t>
   </si>
   <si>
-    <t>ajju</t>
+    <t>AuditNo</t>
+  </si>
+  <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>FileNo</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>chandana</t>
   </si>
 </sst>
 </file>
@@ -123,13 +123,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,67 +447,68 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>41255</v>
       </c>
       <c r="F2">
@@ -523,10 +524,10 @@
         <v>123</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
